--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Cable connector RFID lỗi</t>
+  </si>
+  <si>
+    <t>Thay cable connector</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -712,18 +721,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,21 +764,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1099,43 +1105,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1180,58 +1186,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1256,23 +1262,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1332,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1385,7 +1391,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1395,12 +1401,20 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44372</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183033843785</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50"/>
       <c r="J8" s="40"/>
@@ -1414,7 +1428,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1424,12 +1438,20 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44372</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183033833893</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
@@ -1443,7 +1465,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1472,7 +1494,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1523,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1530,7 +1552,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1561,7 +1583,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1612,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1619,7 +1641,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +1670,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2879,13 +2901,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2897,6 +2912,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2907,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2940,43 +2962,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3021,99 +3043,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="73" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3166,14 +3188,14 @@
       <c r="S6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="73"/>
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="73"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3225,23 +3247,31 @@
       <c r="S7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="74"/>
+      <c r="W7" s="73"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44372</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868926033947745</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50"/>
       <c r="J8" s="40"/>
@@ -3254,23 +3284,31 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74"/>
+      <c r="W8" s="73"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44372</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="39">
+        <v>864811036991474</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
@@ -3283,41 +3321,65 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="74"/>
+      <c r="W9" s="73"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>44372</v>
+      </c>
       <c r="C10" s="65"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="39">
+        <v>864811037229775</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="74"/>
+      <c r="W10" s="73"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3341,12 +3403,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="74"/>
+      <c r="W11" s="73"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3370,14 +3432,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="T12" s="73"/>
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="74"/>
+      <c r="W12" s="73"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3401,12 +3463,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="74"/>
+      <c r="W13" s="73"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3430,12 +3492,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="74"/>
+      <c r="W14" s="73"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3460,11 +3522,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="74"/>
+      <c r="W15" s="73"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3489,11 +3551,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="73"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3518,9 +3580,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="73"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="73"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3572,7 +3634,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="72" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3640,7 +3702,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3753,7 +3815,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="72" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3949,7 +4011,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4141,7 +4203,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4720,13 +4782,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4738,6 +4793,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4781,43 +4843,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4862,58 +4924,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4938,23 +5000,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,7 +5042,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5011,7 +5073,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5040,7 +5102,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5069,7 +5131,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5098,7 +5160,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5127,7 +5189,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5156,7 +5218,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5187,7 +5249,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5216,7 +5278,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5245,7 +5307,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5274,7 +5336,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6505,6 +6567,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6516,13 +6585,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,30 @@
   </si>
   <si>
     <t>Thay cable connector</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -727,6 +751,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,31 +787,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1105,43 +1129,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1186,58 +1210,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1262,23 +1286,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,7 +1356,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1391,7 +1415,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1428,7 +1452,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1453,19 +1477,35 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1494,7 +1534,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1523,7 +1563,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1552,7 +1592,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1583,7 +1623,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1652,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1681,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1710,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1829,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2290,7 +2330,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2322,7 +2362,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2901,6 +2941,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2912,13 +2959,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2929,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2962,43 +3002,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3043,58 +3083,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3119,23 +3159,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,7 +3229,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3248,7 +3288,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3273,19 +3313,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3310,19 +3366,37 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3375,7 +3449,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3404,7 +3478,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3433,7 +3507,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3464,7 +3538,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3493,7 +3567,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3522,7 +3596,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3551,7 +3625,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3670,7 +3744,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -4043,7 +4117,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4203,7 +4277,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4782,6 +4856,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4793,13 +4874,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4843,43 +4917,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4924,58 +4998,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5000,23 +5074,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5042,7 +5116,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5073,7 +5147,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5102,7 +5176,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5131,7 +5205,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5160,7 +5234,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5189,7 +5263,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5218,7 +5292,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5249,7 +5323,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5278,7 +5352,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5307,7 +5381,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5336,7 +5410,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6567,13 +6641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6585,6 +6652,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
@@ -751,9 +754,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -773,21 +791,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" topLeftCell="J5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,43 +1132,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1210,58 +1213,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1286,23 +1289,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1359,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1415,7 +1418,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1428,7 +1431,9 @@
       <c r="B8" s="37">
         <v>44372</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44375</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1440,19 +1445,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1465,14 +1486,18 @@
       <c r="B9" s="37">
         <v>44372</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44375</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="39">
         <v>868183033833893</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="G9" s="38" t="s">
         <v>63</v>
       </c>
@@ -1505,7 +1530,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1559,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1563,7 +1588,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1617,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1623,7 +1648,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1677,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1706,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1735,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1829,7 +1854,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2298,7 +2323,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2362,7 +2387,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2941,13 +2966,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2959,6 +2977,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2969,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3002,43 +3027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3083,58 +3108,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3159,23 +3184,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3229,7 +3254,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3288,7 +3313,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3301,7 +3326,9 @@
       <c r="B8" s="37">
         <v>44372</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44375</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>64</v>
       </c>
@@ -3341,7 +3368,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3381,9 @@
       <c r="B9" s="37">
         <v>44372</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44375</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>64</v>
       </c>
@@ -3396,7 +3425,7 @@
         <v>85</v>
       </c>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3409,7 +3438,9 @@
       <c r="B10" s="37">
         <v>44372</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="37">
+        <v>44375</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>64</v>
       </c>
@@ -3449,7 +3480,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3478,7 +3509,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3507,7 +3538,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3538,7 +3569,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3567,7 +3598,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3596,7 +3627,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3625,7 +3656,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4856,13 +4887,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4874,6 +4898,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4917,43 +4948,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4998,58 +5029,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5074,23 +5105,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5116,7 +5147,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5147,7 +5178,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5176,7 +5207,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5205,7 +5236,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5234,7 +5265,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5263,7 +5294,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5292,7 +5323,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5323,7 +5354,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5352,7 +5383,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5381,7 +5412,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5410,7 +5441,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6641,6 +6672,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6652,13 +6690,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_DLMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -658,9 +658,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,9 +682,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,6 +748,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,31 +784,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,21 +1093,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M9"/>
+    <sheetView showZeros="0" topLeftCell="M5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="67" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1132,46 +1126,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1189,14 +1183,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="54"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1213,100 +1207,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="70" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1329,13 +1323,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="59" t="s">
         <v>66</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1358,14 +1352,14 @@
         <v>72</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="74" t="s">
+      <c r="T6" s="69"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="71"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1388,13 +1382,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="59" t="s">
         <v>73</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1417,12 +1411,12 @@
         <v>78</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="75"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="71"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1444,14 +1438,14 @@
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="58" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="40"/>
@@ -1472,12 +1466,12 @@
         <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="75"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="71"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1502,7 +1496,7 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>96</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -1529,25 +1523,25 @@
         <v>25</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="75"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="71"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="37"/>
-      <c r="C10" s="65"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1558,25 +1552,25 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="75"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="71"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1587,25 +1581,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="75"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="71"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1616,27 +1610,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="74" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="71"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1647,25 +1641,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="75"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="71"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1676,25 +1670,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="75"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="71"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1706,24 +1700,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="71"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="56"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1735,24 +1729,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="71"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1764,22 +1758,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="71"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="71"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="56"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1799,14 +1793,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="56"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1818,26 +1812,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="70" t="s">
+      <c r="U19" s="68" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="56"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1862,14 +1856,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="56"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1894,14 +1888,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="56"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1926,14 +1920,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="56"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1953,14 +1947,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="56"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1980,14 +1974,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="56"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1999,26 +1993,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="70" t="s">
+      <c r="U25" s="68" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="56"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2043,14 +2037,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="56"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2075,14 +2069,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2107,14 +2101,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="56"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2139,14 +2133,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="56"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2171,14 +2165,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="56"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2203,14 +2197,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="56"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2235,14 +2229,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="56"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2267,14 +2261,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="56"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2299,14 +2293,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="56"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2331,14 +2325,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="56"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2363,14 +2357,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="56"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2395,14 +2389,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="56"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2422,14 +2416,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="56"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2449,14 +2443,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="56"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2481,14 +2475,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="56"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2513,14 +2507,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="56"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2540,14 +2534,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="56"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2567,14 +2561,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="56"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2603,14 +2597,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="56"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2642,14 +2636,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="56"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2681,14 +2675,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="56"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2720,14 +2714,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="56"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2762,14 +2756,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="56"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2781,23 +2775,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="57"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2806,26 +2800,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="56"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2837,23 +2831,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="58"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2865,23 +2859,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="58"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2893,23 +2887,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="58"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2921,23 +2915,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="58"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2949,9 +2943,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2966,6 +2960,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2977,13 +2978,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2994,21 +2988,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="67" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -3027,46 +3021,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3084,14 +3078,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="54"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3108,100 +3102,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3224,13 +3218,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="59" t="s">
         <v>79</v>
       </c>
       <c r="L6" s="40"/>
@@ -3253,14 +3247,14 @@
       <c r="S6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="T6" s="71"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="73"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3283,13 +3277,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>80</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="59" t="s">
         <v>79</v>
       </c>
       <c r="L7" s="40"/>
@@ -3312,12 +3306,12 @@
       <c r="S7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3339,14 +3333,14 @@
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
         <v>67</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="40" t="s">
         <v>91</v>
       </c>
@@ -3367,12 +3361,12 @@
         <v>23</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="73"/>
+      <c r="W8" s="71"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3395,7 +3389,7 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>94</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -3424,12 +3418,12 @@
       <c r="S9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="73"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3452,7 +3446,7 @@
         <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>80</v>
       </c>
       <c r="J10" s="40" t="s">
@@ -3479,25 +3473,25 @@
         <v>30</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="73"/>
+      <c r="W10" s="71"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3508,25 +3502,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="73"/>
+      <c r="W11" s="71"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3537,27 +3531,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="73"/>
+      <c r="W12" s="71"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -3568,25 +3562,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="73"/>
+      <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -3597,25 +3591,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="73"/>
+      <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3627,24 +3621,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="73"/>
+      <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="56"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3656,24 +3650,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="73"/>
+      <c r="W16" s="71"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3685,22 +3679,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="73"/>
+      <c r="U17" s="71"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="73"/>
+      <c r="W17" s="71"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="56"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3720,14 +3714,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="56"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3739,26 +3733,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="72" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="56"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3783,14 +3777,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="56"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3815,14 +3809,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="56"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3847,14 +3841,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="56"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3874,14 +3868,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="56"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3901,14 +3895,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="56"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3920,26 +3914,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="72" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="56"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3964,14 +3958,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="56"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3996,14 +3990,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -4028,14 +4022,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="56"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4060,14 +4054,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="56"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4092,14 +4086,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="56"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4124,14 +4118,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="56"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4156,14 +4150,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="56"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4188,14 +4182,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="56"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4220,14 +4214,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="56"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4252,14 +4246,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="56"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4284,14 +4278,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="56"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4316,14 +4310,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="56"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4343,14 +4337,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="56"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4370,14 +4364,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="56"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4402,14 +4396,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="56"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4434,14 +4428,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="56"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4461,14 +4455,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="56"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4488,14 +4482,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="56"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4524,14 +4518,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="56"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4563,14 +4557,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="56"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4602,14 +4596,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="56"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4641,14 +4635,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="56"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4683,14 +4677,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="56"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4702,23 +4696,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="57"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4727,26 +4721,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="56"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4758,23 +4752,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="58"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4786,23 +4780,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="58"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4814,23 +4808,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="58"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4842,23 +4836,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="58"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4870,9 +4864,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4887,6 +4881,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4898,13 +4899,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4915,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4948,43 +4942,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5029,365 +5023,611 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44348</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44348</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>867717030417514</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44348</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44348</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183033803375</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44375</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183033843785</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44375</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183033833893</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44348</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44348</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033954808</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="M10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="42"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44348</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44348</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868926033952745</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="O11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="42"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44375</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033947745</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44375</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="39">
+        <v>864811036991474</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="O13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="42"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44375</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="39">
+        <v>864811037229775</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5412,11 +5652,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5441,11 +5681,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5470,9 +5710,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5524,13 +5764,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5560,7 +5800,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5592,7 +5832,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5624,7 +5864,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5705,13 +5945,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -5837,7 +6077,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5901,7 +6141,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5933,7 +6173,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -5965,7 +6205,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -6029,7 +6269,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6061,7 +6301,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6093,7 +6333,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6487,9 +6727,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6498,10 +6738,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6512,12 +6752,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6543,9 +6783,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6571,9 +6811,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6599,9 +6839,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6627,9 +6867,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6655,9 +6895,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,13 +6912,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6690,6 +6923,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
